--- a/usage_data/Example Atlanta GA/Georgia_Usage_Jan2022.xlsx
+++ b/usage_data/Example Atlanta GA/Georgia_Usage_Jan2022.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredkramer/Documents/python/hummingbird/usage_data/Example Atlanta GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0068D2-CDFC-CA43-8A76-7FF3C99C7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A026258-6FB9-5846-8ED5-8C0AAFB01AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25240" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25240" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2415,7 +2428,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2461,7 +2474,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2480,9 +2493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2520,9 +2533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2555,26 +2568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2607,26 +2603,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2802,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="D796" sqref="D796"/>
+    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
+      <selection activeCell="D786" sqref="D786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
